--- a/数模美赛/Countries.xlsx
+++ b/数模美赛/Countries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\83723\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FF3A4B-6982-489D-AEC2-59559BC22F57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314C2CB1-7E7D-4F15-89A3-90D012392A50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D21CEFE6-0595-419E-BE58-29D5FB2F7D28}"/>
+    <workbookView xWindow="-11796" yWindow="4848" windowWidth="17280" windowHeight="8976" xr2:uid="{D21CEFE6-0595-419E-BE58-29D5FB2F7D28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="82">
   <si>
     <t>China</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,6 +292,23 @@
   </si>
   <si>
     <t xml:space="preserve">    0.1376    0.1129    0.1752    0.1267    0.1010    0.3466</t>
+  </si>
+  <si>
+    <t>ans (系数)=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.2584    0.0013    1.0378   -2.4099   -0.1236    1.6505         0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   12.9187    6.3357    5.3745   -1.8892   -7.3907   -6.7546</t>
+  </si>
+  <si>
+    <t>Y=0.0111X-0.397</t>
+  </si>
+  <si>
+    <t>Y=0.0227X+0.0425</t>
   </si>
 </sst>
 </file>
@@ -735,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C41AD9-6ED0-4424-AB82-601D890561FA}">
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="64" zoomScaleNormal="100" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="M53" zoomScale="72" zoomScaleNormal="100" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="T84" sqref="T84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2211,6 +2228,24 @@
       <c r="H59">
         <v>3.09E-2</v>
       </c>
+      <c r="T59">
+        <v>4.4165000000000003E-2</v>
+      </c>
+      <c r="U59">
+        <v>9.1980000000000006E-2</v>
+      </c>
+      <c r="V59">
+        <v>6.497E-2</v>
+      </c>
+      <c r="W59">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="X59">
+        <v>3.65E-3</v>
+      </c>
+      <c r="Y59">
+        <v>0.12227499999999999</v>
+      </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
@@ -2277,6 +2312,9 @@
       <c r="I62">
         <v>9.0899999999999995E-2</v>
       </c>
+      <c r="T62" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -2303,6 +2341,9 @@
       <c r="H63">
         <v>0.12130000000000001</v>
       </c>
+      <c r="T63" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
@@ -2333,7 +2374,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>61</v>
       </c>
@@ -2361,8 +2402,11 @@
       <c r="I65">
         <v>7.2099999999999997E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="T65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>62</v>
       </c>
@@ -2387,8 +2431,14 @@
       <c r="H66">
         <v>0.25840000000000002</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P66">
+        <v>1.7450000000000001</v>
+      </c>
+      <c r="T66" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>63</v>
       </c>
@@ -2413,8 +2463,19 @@
       <c r="H67">
         <v>2.9700000000000001E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P67">
+        <v>3.3700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P68">
+        <v>3.09E-2</v>
+      </c>
+      <c r="T68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>72</v>
       </c>
@@ -2442,8 +2503,29 @@
       <c r="I69" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P69">
+        <v>0.3014</v>
+      </c>
+      <c r="T69">
+        <v>2474.6141882428801</v>
+      </c>
+      <c r="U69">
+        <v>747.42756786501195</v>
+      </c>
+      <c r="V69">
+        <v>940.73275540992904</v>
+      </c>
+      <c r="W69">
+        <v>-358.61235658980303</v>
+      </c>
+      <c r="X69">
+        <v>-1197.26662376528</v>
+      </c>
+      <c r="Y69">
+        <v>-1167.2844528978001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>58</v>
       </c>
@@ -2471,8 +2553,11 @@
       <c r="I70">
         <v>5.4199999999999998E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P70">
+        <v>0.1154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>59</v>
       </c>
@@ -2497,8 +2582,11 @@
       <c r="H71">
         <v>7.2099999999999997E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P71">
+        <v>0.4662</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>60</v>
       </c>
@@ -2526,8 +2614,11 @@
       <c r="I72" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="T72" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>61</v>
       </c>
@@ -2555,8 +2646,11 @@
       <c r="I73">
         <v>4.2999999999999997E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="T73" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>62</v>
       </c>
@@ -2581,8 +2675,26 @@
       <c r="H74">
         <v>2.7699999999999999E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P74">
+        <v>574.61418824288</v>
+      </c>
+      <c r="Q74">
+        <v>747.42756789999999</v>
+      </c>
+      <c r="R74">
+        <v>940.73275539999997</v>
+      </c>
+      <c r="S74">
+        <v>-358.6123566</v>
+      </c>
+      <c r="T74">
+        <v>-1197.2666240000001</v>
+      </c>
+      <c r="U74">
+        <v>-1167.284453</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>63</v>
       </c>
@@ -2608,7 +2720,7 @@
         <v>0.46429999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2617,7 +2729,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>70</v>
       </c>
@@ -2646,7 +2758,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>58</v>
       </c>
@@ -2675,7 +2787,7 @@
         <v>2.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>59</v>
       </c>
@@ -2701,7 +2813,7 @@
         <v>0.13980000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>60</v>
       </c>
@@ -3036,11 +3148,6 @@
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
